--- a/docentes/García Sánchez Magda Bexabe - Estadisticos 20211.xlsx
+++ b/docentes/García Sánchez Magda Bexabe - Estadisticos 20211.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="43">
   <si>
     <t>Mat</t>
   </si>
@@ -77,6 +77,75 @@
   </si>
   <si>
     <t>Reprobadas</t>
+  </si>
+  <si>
+    <t>MORALES</t>
+  </si>
+  <si>
+    <t>OFICIAL</t>
+  </si>
+  <si>
+    <t>LOPEZ</t>
+  </si>
+  <si>
+    <t>TRUJILLO</t>
+  </si>
+  <si>
+    <t>ZUÑIGA</t>
+  </si>
+  <si>
+    <t>SANCHEZ</t>
+  </si>
+  <si>
+    <t>TELLEZ</t>
+  </si>
+  <si>
+    <t>ARELLANO</t>
+  </si>
+  <si>
+    <t>TZOMPAXTLE</t>
+  </si>
+  <si>
+    <t>RAMOS</t>
+  </si>
+  <si>
+    <t>OSORIO</t>
+  </si>
+  <si>
+    <t>ESPINDOLA</t>
+  </si>
+  <si>
+    <t>CASTELLANOS</t>
+  </si>
+  <si>
+    <t>VALENCIA</t>
+  </si>
+  <si>
+    <t>VILLASEÑOR</t>
+  </si>
+  <si>
+    <t>WENCESLAO</t>
+  </si>
+  <si>
+    <t>CLEMENTE</t>
+  </si>
+  <si>
+    <t>ANETTE JOCELYN</t>
+  </si>
+  <si>
+    <t>KARINA YOSELIN</t>
+  </si>
+  <si>
+    <t>ROSA ITZEL</t>
+  </si>
+  <si>
+    <t>NOEMI</t>
+  </si>
+  <si>
+    <t>VIANEY</t>
+  </si>
+  <si>
+    <t>MONICA AIME</t>
   </si>
 </sst>
 </file>
@@ -584,16 +653,19 @@
         <v>24</v>
       </c>
       <c r="D6">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>83.33</v>
+      </c>
+      <c r="H6">
+        <v>8.800000000000001</v>
       </c>
     </row>
   </sheetData>
@@ -744,7 +816,7 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -910,16 +982,19 @@
         <v>24</v>
       </c>
       <c r="D6">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>83.33</v>
+      </c>
+      <c r="H6">
+        <v>8.800000000000001</v>
       </c>
     </row>
   </sheetData>
@@ -929,7 +1004,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G1"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -962,6 +1037,190 @@
         <v>19</v>
       </c>
     </row>
+    <row r="2" spans="1:7">
+      <c r="A2">
+        <v>21330051920199</v>
+      </c>
+      <c r="B2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3">
+        <v>21330051920201</v>
+      </c>
+      <c r="B3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D3" t="s">
+        <v>36</v>
+      </c>
+      <c r="E3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4">
+        <v>21330051920306</v>
+      </c>
+      <c r="B4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5">
+        <v>21330051920328</v>
+      </c>
+      <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D5" t="s">
+        <v>38</v>
+      </c>
+      <c r="E5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6">
+        <v>21330051920330</v>
+      </c>
+      <c r="B6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" t="s">
+        <v>31</v>
+      </c>
+      <c r="D6" t="s">
+        <v>39</v>
+      </c>
+      <c r="E6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7">
+        <v>21330051920352</v>
+      </c>
+      <c r="B7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D7" t="s">
+        <v>40</v>
+      </c>
+      <c r="E7" t="s">
+        <v>8</v>
+      </c>
+      <c r="F7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8">
+        <v>21330051920283</v>
+      </c>
+      <c r="B8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" t="s">
+        <v>33</v>
+      </c>
+      <c r="D8" t="s">
+        <v>41</v>
+      </c>
+      <c r="E8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F8" t="s">
+        <v>11</v>
+      </c>
+      <c r="G8">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9">
+        <v>21330051920311</v>
+      </c>
+      <c r="B9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9" t="s">
+        <v>34</v>
+      </c>
+      <c r="D9" t="s">
+        <v>42</v>
+      </c>
+      <c r="E9" t="s">
+        <v>8</v>
+      </c>
+      <c r="F9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G9">
+        <v>6</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/docentes/García Sánchez Magda Bexabe - Estadisticos 20211.xlsx
+++ b/docentes/García Sánchez Magda Bexabe - Estadisticos 20211.xlsx
@@ -94,12 +94,12 @@
     <t>ZUÑIGA</t>
   </si>
   <si>
+    <t>TELLEZ</t>
+  </si>
+  <si>
     <t>SANCHEZ</t>
   </si>
   <si>
-    <t>TELLEZ</t>
-  </si>
-  <si>
     <t>ARELLANO</t>
   </si>
   <si>
@@ -115,15 +115,15 @@
     <t>ESPINDOLA</t>
   </si>
   <si>
+    <t>VALENCIA</t>
+  </si>
+  <si>
+    <t>VILLASEÑOR</t>
+  </si>
+  <si>
     <t>CASTELLANOS</t>
   </si>
   <si>
-    <t>VALENCIA</t>
-  </si>
-  <si>
-    <t>VILLASEÑOR</t>
-  </si>
-  <si>
     <t>WENCESLAO</t>
   </si>
   <si>
@@ -139,13 +139,13 @@
     <t>ROSA ITZEL</t>
   </si>
   <si>
+    <t>VIANEY</t>
+  </si>
+  <si>
+    <t>MONICA AIME</t>
+  </si>
+  <si>
     <t>NOEMI</t>
-  </si>
-  <si>
-    <t>VIANEY</t>
-  </si>
-  <si>
-    <t>MONICA AIME</t>
   </si>
 </sst>
 </file>
@@ -624,10 +624,10 @@
         <v>12</v>
       </c>
       <c r="C5">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D5">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -636,7 +636,7 @@
         <v>35</v>
       </c>
       <c r="G5">
-        <v>79.55</v>
+        <v>81.40000000000001</v>
       </c>
       <c r="H5">
         <v>8.1</v>
@@ -787,10 +787,10 @@
         <v>12</v>
       </c>
       <c r="C5">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D5">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E5">
         <v>35</v>
@@ -953,10 +953,10 @@
         <v>12</v>
       </c>
       <c r="C5">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D5">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -965,7 +965,7 @@
         <v>35</v>
       </c>
       <c r="G5">
-        <v>79.55</v>
+        <v>81.40000000000001</v>
       </c>
       <c r="H5">
         <v>8.1</v>
@@ -1154,7 +1154,7 @@
     </row>
     <row r="7" spans="1:7">
       <c r="A7">
-        <v>21330051920352</v>
+        <v>21330051920283</v>
       </c>
       <c r="B7" t="s">
         <v>25</v>
@@ -1169,7 +1169,7 @@
         <v>8</v>
       </c>
       <c r="F7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G7">
         <v>6</v>
@@ -1177,10 +1177,10 @@
     </row>
     <row r="8" spans="1:7">
       <c r="A8">
-        <v>21330051920283</v>
+        <v>21330051920311</v>
       </c>
       <c r="B8" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="C8" t="s">
         <v>33</v>
@@ -1192,7 +1192,7 @@
         <v>8</v>
       </c>
       <c r="F8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G8">
         <v>6</v>
@@ -1200,10 +1200,10 @@
     </row>
     <row r="9" spans="1:7">
       <c r="A9">
-        <v>21330051920311</v>
+        <v>21330051920352</v>
       </c>
       <c r="B9" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C9" t="s">
         <v>34</v>
@@ -1215,7 +1215,7 @@
         <v>8</v>
       </c>
       <c r="F9" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G9">
         <v>6</v>

--- a/docentes/García Sánchez Magda Bexabe - Estadisticos 20211.xlsx
+++ b/docentes/García Sánchez Magda Bexabe - Estadisticos 20211.xlsx
@@ -79,42 +79,42 @@
     <t>Reprobadas</t>
   </si>
   <si>
+    <t>OFICIAL</t>
+  </si>
+  <si>
+    <t>LOPEZ</t>
+  </si>
+  <si>
+    <t>TRUJILLO</t>
+  </si>
+  <si>
+    <t>ZUÑIGA</t>
+  </si>
+  <si>
     <t>MORALES</t>
   </si>
   <si>
-    <t>OFICIAL</t>
-  </si>
-  <si>
-    <t>LOPEZ</t>
-  </si>
-  <si>
-    <t>TRUJILLO</t>
-  </si>
-  <si>
-    <t>ZUÑIGA</t>
-  </si>
-  <si>
     <t>TELLEZ</t>
   </si>
   <si>
     <t>SANCHEZ</t>
   </si>
   <si>
+    <t>TZOMPAXTLE</t>
+  </si>
+  <si>
+    <t>RAMOS</t>
+  </si>
+  <si>
+    <t>OSORIO</t>
+  </si>
+  <si>
+    <t>ESPINDOLA</t>
+  </si>
+  <si>
     <t>ARELLANO</t>
   </si>
   <si>
-    <t>TZOMPAXTLE</t>
-  </si>
-  <si>
-    <t>RAMOS</t>
-  </si>
-  <si>
-    <t>OSORIO</t>
-  </si>
-  <si>
-    <t>ESPINDOLA</t>
-  </si>
-  <si>
     <t>VALENCIA</t>
   </si>
   <si>
@@ -124,19 +124,19 @@
     <t>CASTELLANOS</t>
   </si>
   <si>
+    <t>CLEMENTE</t>
+  </si>
+  <si>
+    <t>ANETTE JOCELYN</t>
+  </si>
+  <si>
+    <t>KARINA YOSELIN</t>
+  </si>
+  <si>
+    <t>ROSA ITZEL</t>
+  </si>
+  <si>
     <t>WENCESLAO</t>
-  </si>
-  <si>
-    <t>CLEMENTE</t>
-  </si>
-  <si>
-    <t>ANETTE JOCELYN</t>
-  </si>
-  <si>
-    <t>KARINA YOSELIN</t>
-  </si>
-  <si>
-    <t>ROSA ITZEL</t>
   </si>
   <si>
     <t>VIANEY</t>
@@ -1039,7 +1039,7 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2">
-        <v>21330051920199</v>
+        <v>21330051920201</v>
       </c>
       <c r="B2" t="s">
         <v>20</v>
@@ -1062,7 +1062,7 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3">
-        <v>21330051920201</v>
+        <v>21330051920306</v>
       </c>
       <c r="B3" t="s">
         <v>21</v>
@@ -1077,7 +1077,7 @@
         <v>8</v>
       </c>
       <c r="F3" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="G3">
         <v>6</v>
@@ -1085,7 +1085,7 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4">
-        <v>21330051920306</v>
+        <v>21330051920328</v>
       </c>
       <c r="B4" t="s">
         <v>22</v>
@@ -1108,7 +1108,7 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5">
-        <v>21330051920328</v>
+        <v>21330051920330</v>
       </c>
       <c r="B5" t="s">
         <v>23</v>
@@ -1131,7 +1131,7 @@
     </row>
     <row r="6" spans="1:7">
       <c r="A6">
-        <v>21330051920330</v>
+        <v>21330051920199</v>
       </c>
       <c r="B6" t="s">
         <v>24</v>
@@ -1146,7 +1146,7 @@
         <v>8</v>
       </c>
       <c r="F6" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="G6">
         <v>6</v>
@@ -1180,7 +1180,7 @@
         <v>21330051920311</v>
       </c>
       <c r="B8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C8" t="s">
         <v>33</v>

--- a/docentes/García Sánchez Magda Bexabe - Estadisticos 20211.xlsx
+++ b/docentes/García Sánchez Magda Bexabe - Estadisticos 20211.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="44">
   <si>
     <t>Mat</t>
   </si>
@@ -44,6 +44,9 @@
   </si>
   <si>
     <t>QUÍMICA I</t>
+  </si>
+  <si>
+    <t>1AM</t>
   </si>
   <si>
     <t>1BM</t>
@@ -503,7 +506,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -546,22 +549,22 @@
         <v>9</v>
       </c>
       <c r="C2">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="D2">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="G2">
-        <v>74.19</v>
+        <v>82.34999999999999</v>
       </c>
       <c r="H2">
-        <v>7.7</v>
+        <v>8.4</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -572,22 +575,22 @@
         <v>10</v>
       </c>
       <c r="C3">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="D3">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="G3">
-        <v>91.67</v>
+        <v>74.19</v>
       </c>
       <c r="H3">
-        <v>8.6</v>
+        <v>7.7</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -598,22 +601,22 @@
         <v>11</v>
       </c>
       <c r="C4">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="D4">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G4">
-        <v>74.42</v>
+        <v>91.67</v>
       </c>
       <c r="H4">
-        <v>8.300000000000001</v>
+        <v>8.6</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -627,19 +630,19 @@
         <v>43</v>
       </c>
       <c r="D5">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G5">
-        <v>81.40000000000001</v>
+        <v>74.42</v>
       </c>
       <c r="H5">
-        <v>8.1</v>
+        <v>8.300000000000001</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -650,21 +653,47 @@
         <v>13</v>
       </c>
       <c r="C6">
+        <v>43</v>
+      </c>
+      <c r="D6">
+        <v>8</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>35</v>
+      </c>
+      <c r="G6">
+        <v>81.40000000000001</v>
+      </c>
+      <c r="H6">
+        <v>8.1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7">
         <v>24</v>
       </c>
-      <c r="D6">
+      <c r="D7">
         <v>4</v>
       </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-      <c r="F6">
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
         <v>20</v>
       </c>
-      <c r="G6">
+      <c r="G7">
         <v>83.33</v>
       </c>
-      <c r="H6">
+      <c r="H7">
         <v>8.800000000000001</v>
       </c>
     </row>
@@ -675,7 +704,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -718,13 +747,13 @@
         <v>9</v>
       </c>
       <c r="C2">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="D2">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="E2">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -741,13 +770,13 @@
         <v>10</v>
       </c>
       <c r="C3">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="D3">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="E3">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -764,13 +793,13 @@
         <v>11</v>
       </c>
       <c r="C4">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="D4">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="E4">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -793,7 +822,7 @@
         <v>43</v>
       </c>
       <c r="E5">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -810,18 +839,41 @@
         <v>13</v>
       </c>
       <c r="C6">
+        <v>43</v>
+      </c>
+      <c r="D6">
+        <v>43</v>
+      </c>
+      <c r="E6">
+        <v>35</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7">
         <v>24</v>
       </c>
-      <c r="D6">
+      <c r="D7">
         <v>24</v>
       </c>
-      <c r="E6">
+      <c r="E7">
         <v>20</v>
       </c>
-      <c r="F6">
-        <v>0</v>
-      </c>
-      <c r="G6">
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
         <v>0</v>
       </c>
     </row>
@@ -832,7 +884,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -875,22 +927,22 @@
         <v>9</v>
       </c>
       <c r="C2">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="D2">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="G2">
-        <v>74.19</v>
+        <v>82.34999999999999</v>
       </c>
       <c r="H2">
-        <v>7.7</v>
+        <v>8.4</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -901,22 +953,22 @@
         <v>10</v>
       </c>
       <c r="C3">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="D3">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="G3">
-        <v>91.67</v>
+        <v>74.19</v>
       </c>
       <c r="H3">
-        <v>8.6</v>
+        <v>7.7</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -927,22 +979,22 @@
         <v>11</v>
       </c>
       <c r="C4">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="D4">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G4">
-        <v>74.42</v>
+        <v>91.67</v>
       </c>
       <c r="H4">
-        <v>8.300000000000001</v>
+        <v>8.6</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -956,19 +1008,19 @@
         <v>43</v>
       </c>
       <c r="D5">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G5">
-        <v>81.40000000000001</v>
+        <v>74.42</v>
       </c>
       <c r="H5">
-        <v>8.1</v>
+        <v>8.300000000000001</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -979,21 +1031,47 @@
         <v>13</v>
       </c>
       <c r="C6">
+        <v>43</v>
+      </c>
+      <c r="D6">
+        <v>8</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>35</v>
+      </c>
+      <c r="G6">
+        <v>81.40000000000001</v>
+      </c>
+      <c r="H6">
+        <v>8.1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7">
         <v>24</v>
       </c>
-      <c r="D6">
+      <c r="D7">
         <v>4</v>
       </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-      <c r="F6">
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
         <v>20</v>
       </c>
-      <c r="G6">
+      <c r="G7">
         <v>83.33</v>
       </c>
-      <c r="H6">
+      <c r="H7">
         <v>8.800000000000001</v>
       </c>
     </row>
@@ -1016,25 +1094,25 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1042,19 +1120,19 @@
         <v>21330051920201</v>
       </c>
       <c r="B2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E2" t="s">
         <v>8</v>
       </c>
       <c r="F2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G2">
         <v>6</v>
@@ -1065,19 +1143,19 @@
         <v>21330051920306</v>
       </c>
       <c r="B3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E3" t="s">
         <v>8</v>
       </c>
       <c r="F3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G3">
         <v>6</v>
@@ -1088,19 +1166,19 @@
         <v>21330051920328</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E4" t="s">
         <v>8</v>
       </c>
       <c r="F4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G4">
         <v>6</v>
@@ -1111,19 +1189,19 @@
         <v>21330051920330</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E5" t="s">
         <v>8</v>
       </c>
       <c r="F5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G5">
         <v>6</v>
@@ -1134,19 +1212,19 @@
         <v>21330051920199</v>
       </c>
       <c r="B6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D6" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E6" t="s">
         <v>8</v>
       </c>
       <c r="F6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G6">
         <v>6</v>
@@ -1157,19 +1235,19 @@
         <v>21330051920283</v>
       </c>
       <c r="B7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E7" t="s">
         <v>8</v>
       </c>
       <c r="F7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G7">
         <v>6</v>
@@ -1180,19 +1258,19 @@
         <v>21330051920311</v>
       </c>
       <c r="B8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C8" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D8" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E8" t="s">
         <v>8</v>
       </c>
       <c r="F8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G8">
         <v>6</v>
@@ -1203,19 +1281,19 @@
         <v>21330051920352</v>
       </c>
       <c r="B9" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C9" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D9" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E9" t="s">
         <v>8</v>
       </c>
       <c r="F9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G9">
         <v>6</v>
